--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2021/Xuất kho T6/XK_LK_LÔ 1_4000_TG102LE-4G_180621.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2021/Xuất kho T6/XK_LK_LÔ 1_4000_TG102LE-4G_180621.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\OneDrive\Máy tính\BaoCao\SX2021\SanXuat\XuatNhapKho\Xuất Kho 2021\Xuất Kho 2021\Xuất kho T6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho\Xuất Kho 2021\Xuất kho T6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,14 +22,14 @@
     <sheet name="BM.06" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$G$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$H$91</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="187">
   <si>
     <t>STT</t>
   </si>
@@ -577,9 +577,6 @@
   </si>
   <si>
     <t>VT_PCB_TG102LE-4G</t>
-  </si>
-  <si>
-    <t>STENCIL_TG102LE-4G</t>
   </si>
   <si>
     <t>4000</t>
@@ -1199,7 +1196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1425,13 +1422,76 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1461,67 +1521,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1533,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1554,37 +1584,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1632,15 +1638,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,8 +1677,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1704,28 +1725,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1749,29 +1770,14 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1787,18 +1793,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1840,7 +1834,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1886,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1935,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1987,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,15 +2020,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>488016</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>307040</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2042,7 +2036,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2088,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2186,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2235,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2284,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2328,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2402,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,57 +2743,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="99" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="99"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="99"/>
+      <c r="M3" s="120"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="99" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="99"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2826,29 +2820,29 @@
       <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="73" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101" t="s">
+      <c r="H8" s="104"/>
+      <c r="I8" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="104"/>
+      <c r="K8" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="101"/>
+      <c r="L8" s="104"/>
       <c r="M8" s="73" t="s">
         <v>4</v>
       </c>
@@ -2857,86 +2851,86 @@
       <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="72">
         <v>985</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="106" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="106"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="74">
         <v>2</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="72">
         <v>985</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="106" t="s">
+      <c r="G10" s="108"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="106"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74">
         <v>3</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="72">
         <v>985</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="106" t="s">
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="106"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
         <v>4</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="72" t="s">
         <v>93</v>
       </c>
@@ -2944,58 +2938,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106" t="s">
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="106"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="71"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="113" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="113" t="s">
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="116" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="116" t="s">
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="118"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3058,25 +3052,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="119" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="119" t="s">
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="97"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3089,19 +3083,12 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3118,12 +3105,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3157,51 +3151,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="99" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="99"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="99"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="99" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="99"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3228,23 +3222,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="107" t="s">
+      <c r="G8" s="109"/>
+      <c r="H8" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="108"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="109"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3253,46 +3247,46 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="123">
         <v>6</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="122" t="s">
+      <c r="G9" s="125"/>
+      <c r="H9" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
       <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="123">
         <v>4</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="122" t="s">
+      <c r="G10" s="125"/>
+      <c r="H10" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
       <c r="K10" s="77" t="s">
         <v>117</v>
       </c>
@@ -3301,65 +3295,65 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="123">
         <v>2</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="122" t="s">
+      <c r="G11" s="125"/>
+      <c r="H11" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
       <c r="K11" s="77" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="113" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="113" t="s">
+      <c r="G13" s="103"/>
+      <c r="H13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="116" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="116" t="s">
+      <c r="G14" s="94"/>
+      <c r="H14" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3414,23 +3408,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="119" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="119" t="s">
+      <c r="G19" s="97"/>
+      <c r="H19" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3443,6 +3437,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A19:E19"/>
@@ -3452,24 +3464,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3481,84 +3475,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M90"/>
+  <dimension ref="A2:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="1" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="132" t="s">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="99" t="s">
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="99"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="99" t="s">
+      <c r="H2" s="120"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="99"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="99" t="s">
+      <c r="H3" s="120"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="99"/>
-    </row>
-    <row r="5" spans="1:7" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="120"/>
+    </row>
+    <row r="5" spans="1:8" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="E6" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="F6" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-    </row>
-    <row r="7" spans="1:7" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+    </row>
+    <row r="7" spans="1:8" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
@@ -3568,20 +3565,23 @@
       <c r="C8" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="G8" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="H8" s="60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="68">
         <v>1</v>
       </c>
@@ -3591,18 +3591,21 @@
       <c r="C9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="89">
         <v>8850</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="141" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="141" t="s">
+      <c r="E9" s="89">
+        <v>8850</v>
+      </c>
+      <c r="F9" s="78"/>
+      <c r="G9" s="135" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="68">
         <v>2</v>
       </c>
@@ -3612,14 +3615,17 @@
       <c r="C10" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="89">
         <v>28000</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="89">
+        <v>28000</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68">
         <v>3</v>
       </c>
@@ -3629,14 +3635,17 @@
       <c r="C11" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="89">
         <v>5500</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="78"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="89">
+        <v>5500</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="68">
         <v>4</v>
       </c>
@@ -3646,14 +3655,17 @@
       <c r="C12" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="89">
         <v>16000</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="89">
+        <v>16000</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68">
         <v>5</v>
       </c>
@@ -3663,15 +3675,19 @@
       <c r="C13" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="89">
         <f>4000+1473</f>
         <v>5473</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="78"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="89">
+        <f>4000+1473</f>
+        <v>5473</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="68">
         <v>6</v>
       </c>
@@ -3681,14 +3697,17 @@
       <c r="C14" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="89">
         <v>4728</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="78"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="89">
+        <v>4728</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68">
         <v>7</v>
       </c>
@@ -3698,14 +3717,17 @@
       <c r="C15" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="89">
         <v>4000</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="78"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="68">
         <v>8</v>
       </c>
@@ -3715,14 +3737,17 @@
       <c r="C16" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="89">
         <v>108000</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="78"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="89">
+        <v>108000</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68">
         <v>9</v>
       </c>
@@ -3732,14 +3757,17 @@
       <c r="C17" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="89">
         <v>23000</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="78"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="89">
+        <v>23000</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="68">
         <v>10</v>
       </c>
@@ -3749,31 +3777,37 @@
       <c r="C18" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="89">
         <v>3669</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="78"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="89">
+        <v>3669</v>
+      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68">
         <v>11</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="89">
         <v>2732</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="78"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="89">
+        <v>2732</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="68">
         <v>12</v>
       </c>
@@ -3783,14 +3817,17 @@
       <c r="C20" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="89">
         <v>30500</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="78"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="89">
+        <v>30500</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68">
         <v>13</v>
       </c>
@@ -3800,15 +3837,19 @@
       <c r="C21" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="89">
         <f>3167+16000</f>
         <v>19167</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="78"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="89">
+        <f>3167+16000</f>
+        <v>19167</v>
+      </c>
+      <c r="F21" s="78"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="68">
         <v>14</v>
       </c>
@@ -3818,14 +3859,17 @@
       <c r="C22" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="89">
         <v>9000</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="78"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="89">
+        <v>9000</v>
+      </c>
+      <c r="F22" s="78"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="68">
         <v>15</v>
       </c>
@@ -3835,14 +3879,17 @@
       <c r="C23" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="89">
         <v>4139</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="78"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="89">
+        <v>4139</v>
+      </c>
+      <c r="F23" s="78"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="68">
         <v>16</v>
       </c>
@@ -3852,14 +3899,17 @@
       <c r="C24" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="89">
         <v>5000</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="78"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="89">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="78"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="68">
         <v>17</v>
       </c>
@@ -3869,14 +3919,17 @@
       <c r="C25" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="89">
         <v>6000</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="78"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="89">
+        <v>6000</v>
+      </c>
+      <c r="F25" s="78"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="68">
         <v>18</v>
       </c>
@@ -3886,15 +3939,19 @@
       <c r="C26" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="89">
         <f>2000+2410</f>
         <v>4410</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="78"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="89">
+        <f>2000+2410</f>
+        <v>4410</v>
+      </c>
+      <c r="F26" s="78"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="68">
         <v>19</v>
       </c>
@@ -3904,15 +3961,19 @@
       <c r="C27" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="89">
         <f>3600+572</f>
         <v>4172</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="78"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="89">
+        <f>3600+572</f>
+        <v>4172</v>
+      </c>
+      <c r="F27" s="78"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="68">
         <v>20</v>
       </c>
@@ -3922,15 +3983,19 @@
       <c r="C28" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="89">
         <f>3500+1000</f>
         <v>4500</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="78"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="89">
+        <f>3500+1000</f>
+        <v>4500</v>
+      </c>
+      <c r="F28" s="78"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="68">
         <v>21</v>
       </c>
@@ -3940,14 +4005,17 @@
       <c r="C29" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="89">
         <v>4000</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="78"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F29" s="78"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="68">
         <v>22</v>
       </c>
@@ -3957,14 +4025,17 @@
       <c r="C30" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="89">
         <v>4000</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="78"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="78"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="78"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="68">
         <v>23</v>
       </c>
@@ -3974,14 +4045,17 @@
       <c r="C31" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="89">
         <v>4000</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F31" s="78"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="78"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="68">
         <v>24</v>
       </c>
@@ -3991,14 +4065,17 @@
       <c r="C32" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32" s="89">
         <v>14500</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="89">
+        <v>14500</v>
+      </c>
+      <c r="F32" s="78"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="78"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="68">
         <v>25</v>
       </c>
@@ -4008,15 +4085,19 @@
       <c r="C33" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="89">
         <f>16500+3500</f>
         <v>20000</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="89">
+        <f>16500+3500</f>
+        <v>20000</v>
+      </c>
+      <c r="F33" s="78"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="78"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="68">
         <v>26</v>
       </c>
@@ -4026,15 +4107,19 @@
       <c r="C34" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="89">
         <f>10000+2809</f>
         <v>12809</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="89">
+        <f>10000+2809</f>
+        <v>12809</v>
+      </c>
+      <c r="F34" s="78"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="78"/>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68">
         <v>27</v>
       </c>
@@ -4044,14 +4129,17 @@
       <c r="C35" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35" s="89">
         <v>12000</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="78"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="89">
+        <v>12000</v>
+      </c>
+      <c r="F35" s="78"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="78"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="68">
         <v>28</v>
       </c>
@@ -4061,14 +4149,17 @@
       <c r="C36" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="90">
+      <c r="D36" s="89">
         <v>13000</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="78"/>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="89">
+        <v>13000</v>
+      </c>
+      <c r="F36" s="78"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="78"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="68">
         <v>29</v>
       </c>
@@ -4078,14 +4169,17 @@
       <c r="C37" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="90">
+      <c r="D37" s="89">
         <v>12614</v>
       </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="78"/>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="89">
+        <v>12614</v>
+      </c>
+      <c r="F37" s="78"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="68">
         <v>30</v>
       </c>
@@ -4095,14 +4189,17 @@
       <c r="C38" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38" s="89">
         <v>22620</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="78"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="89">
+        <v>22620</v>
+      </c>
+      <c r="F38" s="78"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="78"/>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="68">
         <v>31</v>
       </c>
@@ -4112,14 +4209,17 @@
       <c r="C39" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39" s="89">
         <v>37000</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="78"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="89">
+        <v>37000</v>
+      </c>
+      <c r="F39" s="78"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="78"/>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68">
         <v>32</v>
       </c>
@@ -4129,14 +4229,17 @@
       <c r="C40" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40" s="89">
         <v>13000</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="78"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="89">
+        <v>13000</v>
+      </c>
+      <c r="F40" s="78"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="78"/>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68">
         <v>33</v>
       </c>
@@ -4146,14 +4249,17 @@
       <c r="C41" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="89">
         <v>8400</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="78"/>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="89">
+        <v>8400</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="78"/>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="68">
         <v>34</v>
       </c>
@@ -4163,15 +4269,19 @@
       <c r="C42" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42" s="89">
         <f>95000+5000</f>
         <v>100000</v>
       </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="78"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="89">
+        <f>95000+5000</f>
+        <v>100000</v>
+      </c>
+      <c r="F42" s="78"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="78"/>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68">
         <v>35</v>
       </c>
@@ -4181,14 +4291,17 @@
       <c r="C43" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43" s="89">
         <v>9000</v>
       </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="78"/>
-    </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="89">
+        <v>9000</v>
+      </c>
+      <c r="F43" s="78"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="78"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="68">
         <v>36</v>
       </c>
@@ -4198,14 +4311,17 @@
       <c r="C44" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="90">
+      <c r="D44" s="89">
         <v>16800</v>
       </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="78"/>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="89">
+        <v>16800</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="78"/>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="68">
         <v>37</v>
       </c>
@@ -4215,15 +4331,19 @@
       <c r="C45" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="89">
         <f>12000+5175</f>
         <v>17175</v>
       </c>
-      <c r="E45" s="78"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="78"/>
-    </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="89">
+        <f>12000+5175</f>
+        <v>17175</v>
+      </c>
+      <c r="F45" s="78"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="78"/>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="68">
         <v>38</v>
       </c>
@@ -4233,14 +4353,17 @@
       <c r="C46" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="90">
+      <c r="D46" s="89">
         <v>3854</v>
       </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="78"/>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="89">
+        <v>3854</v>
+      </c>
+      <c r="F46" s="78"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="78"/>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="68">
         <v>39</v>
       </c>
@@ -4250,14 +4373,17 @@
       <c r="C47" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="90">
+      <c r="D47" s="89">
         <v>2880</v>
       </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="78"/>
-    </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="89">
+        <v>2880</v>
+      </c>
+      <c r="F47" s="78"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="78"/>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="68">
         <v>40</v>
       </c>
@@ -4267,14 +4393,17 @@
       <c r="C48" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="90">
+      <c r="D48" s="89">
         <v>4100</v>
       </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="78"/>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="89">
+        <v>4100</v>
+      </c>
+      <c r="F48" s="78"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="78"/>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="68">
         <v>41</v>
       </c>
@@ -4284,14 +4413,17 @@
       <c r="C49" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="78"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="78"/>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="78"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="78"/>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="68">
         <v>42</v>
       </c>
@@ -4301,14 +4433,17 @@
       <c r="C50" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50" s="89">
         <v>4165</v>
       </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="78"/>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="89">
+        <v>4165</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="78"/>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="68">
         <v>43</v>
       </c>
@@ -4318,31 +4453,37 @@
       <c r="C51" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="90">
+      <c r="D51" s="89">
         <v>1500</v>
       </c>
-      <c r="E51" s="78"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="78"/>
-    </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="89">
+        <v>1500</v>
+      </c>
+      <c r="F51" s="78"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="78"/>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="68">
         <v>44</v>
       </c>
-      <c r="B52" s="213" t="s">
-        <v>187</v>
+      <c r="B52" s="91" t="s">
+        <v>186</v>
       </c>
       <c r="C52" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="90">
+      <c r="D52" s="89">
         <v>3500</v>
       </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="78"/>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="89">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="78"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="78"/>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="68">
         <v>45</v>
       </c>
@@ -4352,14 +4493,17 @@
       <c r="C53" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="90">
+      <c r="D53" s="89">
         <v>850</v>
       </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="78"/>
-    </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="89">
+        <v>850</v>
+      </c>
+      <c r="F53" s="78"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="78"/>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="68">
         <v>46</v>
       </c>
@@ -4369,15 +4513,19 @@
       <c r="C54" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="90">
+      <c r="D54" s="89">
         <f>2000+2000</f>
         <v>4000</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="78"/>
-    </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="89">
+        <f>2000+2000</f>
+        <v>4000</v>
+      </c>
+      <c r="F54" s="78"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="78"/>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="68">
         <v>47</v>
       </c>
@@ -4387,14 +4535,17 @@
       <c r="C55" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="90">
+      <c r="D55" s="89">
         <v>4005</v>
       </c>
-      <c r="E55" s="78"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="78"/>
-    </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="89">
+        <v>4005</v>
+      </c>
+      <c r="F55" s="78"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="78"/>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="68">
         <v>48</v>
       </c>
@@ -4404,14 +4555,17 @@
       <c r="C56" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="90">
+      <c r="D56" s="89">
         <v>6000</v>
       </c>
-      <c r="E56" s="78"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="78"/>
-    </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="89">
+        <v>6000</v>
+      </c>
+      <c r="F56" s="78"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="78"/>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="68">
         <v>49</v>
       </c>
@@ -4421,15 +4575,19 @@
       <c r="C57" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="90">
+      <c r="D57" s="89">
         <f>3500+632</f>
         <v>4132</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="78"/>
-    </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="89">
+        <f>3500+632</f>
+        <v>4132</v>
+      </c>
+      <c r="F57" s="78"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="78"/>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="68">
         <v>50</v>
       </c>
@@ -4439,14 +4597,17 @@
       <c r="C58" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="90">
+      <c r="D58" s="89">
         <v>4000</v>
       </c>
-      <c r="E58" s="78"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="78"/>
-    </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="78"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="78"/>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="68">
         <v>51</v>
       </c>
@@ -4456,14 +4617,17 @@
       <c r="C59" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="90">
+      <c r="D59" s="89">
         <v>1500</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="78"/>
-    </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="89">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="78"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="78"/>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="68">
         <v>52</v>
       </c>
@@ -4473,14 +4637,17 @@
       <c r="C60" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="90">
+      <c r="D60" s="89">
         <v>4000</v>
       </c>
-      <c r="E60" s="78"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="78"/>
-    </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="78"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="78"/>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="68">
         <v>53</v>
       </c>
@@ -4490,14 +4657,17 @@
       <c r="C61" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="90">
+      <c r="D61" s="89">
         <v>8000</v>
       </c>
-      <c r="E61" s="78"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="78"/>
-    </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="89">
+        <v>8000</v>
+      </c>
+      <c r="F61" s="78"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="78"/>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="68">
         <v>54</v>
       </c>
@@ -4507,14 +4677,17 @@
       <c r="C62" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="90">
+      <c r="D62" s="89">
         <v>4500</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="78"/>
-    </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="89">
+        <v>4500</v>
+      </c>
+      <c r="F62" s="78"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="78"/>
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="68">
         <v>55</v>
       </c>
@@ -4524,14 +4697,17 @@
       <c r="C63" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="90">
+      <c r="D63" s="89">
         <v>4000</v>
       </c>
-      <c r="E63" s="78"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="78"/>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F63" s="78"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="78"/>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="68">
         <v>56</v>
       </c>
@@ -4541,14 +4717,17 @@
       <c r="C64" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="90">
+      <c r="D64" s="89">
         <v>4000</v>
       </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="78"/>
-    </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F64" s="78"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="78"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="68">
         <v>57</v>
       </c>
@@ -4558,203 +4737,201 @@
       <c r="C65" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="90">
+      <c r="D65" s="89">
         <v>1500</v>
       </c>
-      <c r="E65" s="78"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="78"/>
-    </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68">
-        <v>58</v>
-      </c>
-      <c r="B66" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="91">
-        <v>1</v>
-      </c>
-      <c r="E66" s="78"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="78"/>
-    </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="89">
+        <v>1500</v>
+      </c>
+      <c r="F65" s="78"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="78"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="67"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="79"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="67"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="79"/>
-    </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="67"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="79"/>
-    </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="61"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-    </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="128" t="s">
+      <c r="B67" s="66"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="79"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="61"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="128"/>
-      <c r="C70" s="128" t="s">
+      <c r="B69" s="139"/>
+      <c r="C69" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="128"/>
-      <c r="E70" s="130" t="s">
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="130"/>
-      <c r="G70" s="83" t="s">
+      <c r="G69" s="141"/>
+      <c r="H69" s="83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="129" t="s">
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="129"/>
-      <c r="C71" s="129" t="s">
+      <c r="B70" s="140"/>
+      <c r="C70" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129" t="s">
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="129"/>
-      <c r="G71" s="82" t="s">
+      <c r="G70" s="140"/>
+      <c r="H70" s="82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="62"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
       <c r="B72" s="62"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="62"/>
-    </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F72" s="62"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="62"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="62"/>
       <c r="B73" s="62"/>
       <c r="C73" s="62"/>
       <c r="D73" s="62"/>
       <c r="E73" s="62"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="62"/>
-    </row>
-    <row r="74" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="62"/>
-    </row>
-    <row r="75" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="65"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-    </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="62"/>
-    </row>
-    <row r="77" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="129" t="s">
+      <c r="F73" s="62"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="62"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="140"/>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="62"/>
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="129"/>
-      <c r="C77" s="129" t="s">
+      <c r="B76" s="140"/>
+      <c r="C76" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="129"/>
-      <c r="E77" s="131" t="s">
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
+      <c r="F76" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="F77" s="131"/>
-      <c r="G77" s="82" t="s">
+      <c r="G76" s="142"/>
+      <c r="H76" s="82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-    </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="3:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C83" s="126" t="s">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="138"/>
+      <c r="G78" s="138"/>
+      <c r="H78" s="138"/>
+    </row>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="3:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C82" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="126"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126"/>
-    </row>
-    <row r="84" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="3:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G90" s="84" t="s">
+      <c r="D82" s="137"/>
+      <c r="E82" s="137"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="137"/>
+    </row>
+    <row r="83" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="3:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H89" s="84" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="C2:F4"/>
     <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B66:G66"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.55118110236220474" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="33" max="6" man="1"/>
     <brk id="61" max="6" man="1"/>
@@ -4785,99 +4962,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="143" t="s">
+      <c r="A1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="99" t="s">
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="99"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="99" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="99"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="99" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="99"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105" t="s">
+      <c r="G5" s="99"/>
+      <c r="H5" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="105"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="160"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="80" t="s">
         <v>122</v>
       </c>
@@ -4903,36 +5080,36 @@
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158" t="s">
+      <c r="B9" s="143"/>
+      <c r="C9" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158" t="s">
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="158"/>
+      <c r="H9" s="143"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157" t="s">
+      <c r="B10" s="160"/>
+      <c r="C10" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157" t="s">
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="157"/>
+      <c r="H10" s="160"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -4945,34 +5122,27 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155" t="s">
+      <c r="B15" s="158"/>
+      <c r="C15" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155" t="s">
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="155"/>
+      <c r="H15" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -4989,6 +5159,13 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -5018,8 +5195,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="164" t="s">
         <v>15</v>
       </c>
@@ -5030,8 +5207,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="167"/>
       <c r="D3" s="168"/>
       <c r="E3" s="169"/>
@@ -5040,8 +5217,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="170"/>
       <c r="D4" s="171"/>
       <c r="E4" s="172"/>
@@ -5362,78 +5539,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="178" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="181"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="189"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="179" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="180"/>
-      <c r="L3" s="181"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="189"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="179" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="180"/>
-      <c r="L4" s="181"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177" t="s">
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -5525,58 +5702,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="189" t="s">
+      <c r="A21" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="175" t="s">
+      <c r="D21" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="174" t="s">
+      <c r="E21" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="174" t="s">
+      <c r="F21" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174" t="s">
+      <c r="G21" s="178"/>
+      <c r="H21" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="174" t="s">
+      <c r="I21" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="184" t="s">
+      <c r="K21" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="182" t="s">
+      <c r="L21" s="174" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="189"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="174"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="178"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="183"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="175"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -5621,12 +5798,12 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="188" t="s">
+      <c r="D26" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="161" t="s">
@@ -5694,74 +5871,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="187"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="187" t="s">
+      <c r="A33" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="179"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="179" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5769,6 +5946,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -5785,22 +5978,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5833,62 +6010,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="202" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="179" t="s">
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="181"/>
+      <c r="K2" s="189"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="179" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="181"/>
+      <c r="K3" s="189"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="179" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="181"/>
+      <c r="K4" s="189"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5902,12 +6079,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -5937,10 +6114,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="198" t="s">
+      <c r="J7" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="199"/>
+      <c r="K7" s="192"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -5954,8 +6131,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="200"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -5969,8 +6146,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="200"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -5984,8 +6161,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -5999,8 +6176,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="194"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -6014,8 +6191,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -6029,14 +6206,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="202"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="201"/>
+      <c r="B14" s="194"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -6044,44 +6221,35 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="196"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="204"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="190" t="s">
+      <c r="A16" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="190"/>
-      <c r="C16" s="190"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="198"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="190" t="s">
+      <c r="E16" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190" t="s">
+      <c r="F16" s="198"/>
+      <c r="G16" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190" t="s">
+      <c r="H16" s="198"/>
+      <c r="I16" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -6093,6 +6261,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -6132,48 +6309,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="179" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="181"/>
+      <c r="J2" s="189"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="179" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="181"/>
+      <c r="J3" s="189"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="179" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="181"/>
+      <c r="J4" s="189"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6219,11 +6396,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -6233,174 +6410,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="205" t="s">
+      <c r="H8" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="205"/>
-      <c r="J8" s="206"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="209"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="210"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="205"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="210"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="205"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="210"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="205"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="210"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="205"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="210"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="205"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="210"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="205"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="210"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="205"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="210"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="210"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="205"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="210"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="205"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6415,42 +6592,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114" t="s">
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="115"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="103"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6460,9 +6637,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6472,9 +6649,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6484,9 +6661,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -6494,6 +6671,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -6501,38 +6710,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
